--- a/excel/raideur_2lamelles_large_mesh1.xlsx
+++ b/excel/raideur_2lamelles_large_mesh1.xlsx
@@ -857,9 +857,35 @@
           <c:tx>
             <c:v>raideur</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26985856714434758"/>
+                  <c:y val="0.22844849424414451"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>xyToExcel!$A:$A</c:f>
@@ -1620,11 +1646,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105527168"/>
-        <c:axId val="137076096"/>
+        <c:axId val="175041920"/>
+        <c:axId val="175113344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105527168"/>
+        <c:axId val="175041920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1641,7 +1667,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Displacement</a:t>
+                  <a:t>Déplacement (cm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1653,12 +1679,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137076096"/>
+        <c:crossAx val="175113344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137076096"/>
+        <c:axId val="175113344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,7 +1702,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Force</a:t>
+                  <a:t>Force (N)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1688,7 +1714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105527168"/>
+        <c:crossAx val="175041920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1697,6 +1723,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1709,16 +1740,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2030,7 +2061,7 @@
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C122"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
